--- a/Wine_Quality/outputs/train_80_test_20/depth_6/wq_train_80_test_20_depth_6_report.xlsx
+++ b/Wine_Quality/outputs/train_80_test_20/depth_6/wq_train_80_test_20_depth_6_report.xlsx
@@ -458,58 +458,58 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>High quality</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>0.6181818181818182</v>
       </c>
       <c r="C2" t="n">
-        <v>0.04081632653061224</v>
+        <v>0.265625</v>
       </c>
       <c r="D2" t="n">
-        <v>0.07843137254901961</v>
+        <v>0.3715846994535519</v>
       </c>
       <c r="E2" t="n">
-        <v>49</v>
+        <v>256</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>Low quality</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8003300330033003</v>
+        <v>0.5</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9748743718592965</v>
+        <v>0.02040816326530612</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8790212958767558</v>
+        <v>0.0392156862745098</v>
       </c>
       <c r="E3" t="n">
-        <v>995</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>Standard quality</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.7093023255813954</v>
+        <v>0.8021885521885522</v>
       </c>
       <c r="C4" t="n">
-        <v>0.23828125</v>
+        <v>0.9577889447236181</v>
       </c>
       <c r="D4" t="n">
-        <v>0.3567251461988304</v>
+        <v>0.8731103985341273</v>
       </c>
       <c r="E4" t="n">
-        <v>256</v>
+        <v>995</v>
       </c>
     </row>
     <row r="5">
@@ -519,16 +519,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7946153846153846</v>
+        <v>0.7861538461538462</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7946153846153846</v>
+        <v>0.7861538461538462</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7946153846153846</v>
+        <v>0.7861538461538462</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7946153846153846</v>
+        <v>0.7861538461538462</v>
       </c>
     </row>
     <row r="6">
@@ -538,13 +538,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.8365441195282318</v>
+        <v>0.6401234567901235</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4179906494633029</v>
+        <v>0.4146073693296414</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4380592715415352</v>
+        <v>0.4279702614207297</v>
       </c>
       <c r="E6" t="n">
         <v>1300</v>
@@ -557,13 +557,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.7899305986054777</v>
+        <v>0.7545631960631961</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7946153846153846</v>
+        <v>0.7861538461538462</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7459930492916728</v>
+        <v>0.7429169986377054</v>
       </c>
       <c r="E7" t="n">
         <v>1300</v>

--- a/Wine_Quality/outputs/train_80_test_20/depth_6/wq_train_80_test_20_depth_6_report.xlsx
+++ b/Wine_Quality/outputs/train_80_test_20/depth_6/wq_train_80_test_20_depth_6_report.xlsx
@@ -462,13 +462,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6181818181818182</v>
+        <v>0.62</v>
       </c>
       <c r="C2" t="n">
-        <v>0.265625</v>
+        <v>0.27</v>
       </c>
       <c r="D2" t="n">
-        <v>0.3715846994535519</v>
+        <v>0.37</v>
       </c>
       <c r="E2" t="n">
         <v>256</v>
@@ -484,10 +484,10 @@
         <v>0.5</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02040816326530612</v>
+        <v>0.02</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0392156862745098</v>
+        <v>0.04</v>
       </c>
       <c r="E3" t="n">
         <v>49</v>
@@ -500,13 +500,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8021885521885522</v>
+        <v>0.8</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9577889447236181</v>
+        <v>0.96</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8731103985341273</v>
+        <v>0.87</v>
       </c>
       <c r="E4" t="n">
         <v>995</v>
@@ -518,17 +518,13 @@
           <t>accuracy</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>0.7861538461538462</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.7861538461538462</v>
-      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
       <c r="D5" t="n">
-        <v>0.7861538461538462</v>
+        <v>0.79</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7861538461538462</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="6">
@@ -538,13 +534,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.6401234567901235</v>
+        <v>0.64</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4146073693296414</v>
+        <v>0.41</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4279702614207297</v>
+        <v>0.43</v>
       </c>
       <c r="E6" t="n">
         <v>1300</v>
@@ -557,13 +553,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.7545631960631961</v>
+        <v>0.75</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7861538461538462</v>
+        <v>0.79</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7429169986377054</v>
+        <v>0.74</v>
       </c>
       <c r="E7" t="n">
         <v>1300</v>
